--- a/tests/artifact/script/Invite.xlsx
+++ b/tests/artifact/script/Invite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6910" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="826">
   <si>
     <t>target</t>
   </si>
@@ -2377,7 +2377,25 @@
     <t>test[NUMBER(${num})=&gt;randomDigits(5)]</t>
   </si>
   <si>
-    <t>Create User</t>
+    <t>Positive (correct userrole) - Invite Module - POST /invite</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>$(array|length|${userrolevalid})</t>
   </si>
   <si>
     <t>Request</t>
@@ -2387,27 +2405,6 @@
   </si>
   <si>
     <t>${api.baseUrl}gkuser</t>
-  </si>
-  <si>
-    <t>Positive (correct userrole) - Invite Module - POST /invite</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>${counter}</t>
-  </si>
-  <si>
-    <t>$(array|length|${userrolevalid})</t>
   </si>
   <si>
     <t>body</t>
@@ -2468,9 +2465,6 @@
     <t>${api.baseUrl}invite</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>validuserole</t>
   </si>
   <si>
@@ -2566,6 +2560,9 @@
 expectedResponseTime=3000
 expectedContentType=application/json
 schema=${schema.path}\Deleteinvite.txt</t>
+  </si>
+  <si>
+    <t>Create User</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -2587,6 +2584,9 @@
     <t>Positive (correct userrole) - Invite Module - Delete /invite</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>{
   "userid": 0
 }</t>
@@ -2599,8 +2599,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2695,32 +2695,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2732,29 +2711,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2763,39 +2719,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2810,7 +2743,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2826,6 +2767,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2833,7 +2805,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2860,78 +2860,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2944,19 +2872,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,7 +2956,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,61 +3034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3085,6 +3085,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3117,56 +3165,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3184,16 +3184,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3202,128 +3193,137 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3372,14 +3372,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3533,14 +3533,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3551,52 +3551,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6724,7 +6724,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" s="61" customFormat="1" ht="32" customHeight="1" spans="1:16384">
+    <row r="5" s="60" customFormat="1" ht="32" customHeight="1" spans="1:16384">
       <c r="A5" s="22" t="s">
         <v>747</v>
       </c>
@@ -23311,11 +23311,11 @@
     <row r="15" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A15" s="49"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="60"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="45"/>
@@ -26486,10 +26486,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O217"/>
+  <dimension ref="A1:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26703,51 +26703,47 @@
       <c r="N7" s="26"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="49" t="s">
+    <row r="8" s="59" customFormat="1" ht="28" spans="1:15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="C8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E8" s="60" t="s">
+      <c r="F8" s="35" t="s">
         <v>772</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>773</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="46"/>
-    </row>
-    <row r="9" s="59" customFormat="1" ht="28" spans="1:15">
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" s="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
-        <v>774</v>
-      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
@@ -26765,14 +26761,14 @@
       <c r="C10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>465</v>
+      <c r="D10" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
@@ -26784,22 +26780,22 @@
       <c r="N10" s="26"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" s="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>49</v>
+      <c r="D11" s="30" t="s">
+        <v>471</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>780</v>
-      </c>
-      <c r="G11" s="30"/>
+        <v>768</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="33"/>
@@ -26811,18 +26807,20 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>768</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>769</v>
+      <c r="E12" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>779</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
@@ -26834,22 +26832,20 @@
       <c r="N12" s="26"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="13" s="1" customFormat="1" ht="101.5" spans="1:15">
       <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
-        <v>771</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="10" t="s">
         <v>471</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
@@ -26861,22 +26857,24 @@
       <c r="N13" s="26"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="101.5" spans="1:15">
+    <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="F14" s="33" t="s">
+      <c r="C14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>782</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="F14" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>784</v>
+      </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="33"/>
@@ -26890,20 +26888,16 @@
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="32" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>783</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="G15" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>785</v>
       </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="33"/>
@@ -26913,19 +26907,21 @@
       <c r="N15" s="26"/>
       <c r="O15" s="25"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="16" s="1" customFormat="1" spans="1:15">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>536</v>
+      <c r="D16" s="30" t="s">
+        <v>471</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>786</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="31" t="s">
+        <v>787</v>
+      </c>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
@@ -26936,20 +26932,20 @@
       <c r="N16" s="26"/>
       <c r="O16" s="25"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="202" customHeight="1" spans="1:15">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F17" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>788</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>789</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -26961,19 +26957,19 @@
       <c r="N17" s="26"/>
       <c r="O17" s="25"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="202" customHeight="1" spans="1:15">
+    <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="22"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F18" s="35" t="s">
+      <c r="D18" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>790</v>
       </c>
       <c r="G18" s="31"/>
@@ -26986,21 +26982,19 @@
       <c r="N18" s="26"/>
       <c r="O18" s="25"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="19" s="1" customFormat="1" spans="1:15">
       <c r="A19" s="22"/>
       <c r="B19" s="23"/>
       <c r="C19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>49</v>
+      <c r="D19" s="31" t="s">
+        <v>536</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>791</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="F19" s="35"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
@@ -27011,19 +27005,25 @@
       <c r="N19" s="26"/>
       <c r="O19" s="25"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="E20" s="31" t="s">
+    <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="B20" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>758</v>
+      </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -27034,26 +27034,26 @@
       <c r="N20" s="26"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="21" s="1" customFormat="1" spans="1:15">
       <c r="A21" s="22" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>793</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>757</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>758</v>
-      </c>
-      <c r="G21" s="31"/>
+        <v>778</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>794</v>
+      </c>
+      <c r="G21" s="30"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="33"/>
@@ -27063,24 +27063,20 @@
       <c r="N21" s="26"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:15">
-      <c r="A22" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>794</v>
-      </c>
+    <row r="22" s="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="36" t="s">
         <v>471</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>772</v>
-      </c>
-      <c r="F22" s="33" t="s">
         <v>795</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>796</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
@@ -27092,74 +27088,74 @@
       <c r="N22" s="26"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" s="6" customFormat="1" ht="28" spans="1:15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="53" t="s">
-        <v>774</v>
-      </c>
-      <c r="C23" s="51" t="s">
+    <row r="23" customFormat="1" ht="101.5" spans="1:15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="52" t="s">
-        <v>775</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>776</v>
-      </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="46"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="51" t="s">
+      <c r="E23" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="25"/>
+    </row>
+    <row r="24" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="25"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="52" t="s">
-        <v>465</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>796</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>778</v>
-      </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="46"/>
-    </row>
-    <row r="25" s="6" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A25" s="49"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>779</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>780</v>
-      </c>
-      <c r="G25" s="52"/>
+      <c r="D25" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="G25" s="31"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="45"/>
@@ -27169,22 +27165,22 @@
       <c r="N25" s="47"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" s="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="26" customFormat="1" ht="116" spans="1:15">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
       <c r="C26" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>798</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="33"/>
@@ -27194,22 +27190,22 @@
       <c r="N26" s="26"/>
       <c r="O26" s="25"/>
     </row>
-    <row r="27" customFormat="1" ht="101.5" spans="1:15">
+    <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="22"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>799</v>
-      </c>
-      <c r="G27" s="30"/>
+      <c r="D27" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>772</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
       <c r="J27" s="33"/>
@@ -27222,22 +27218,20 @@
     <row r="28" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>783</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="H28" s="30"/>
+      <c r="C28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>771</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="31"/>
       <c r="J28" s="33"/>
       <c r="K28" s="25"/>
@@ -27246,46 +27240,30 @@
       <c r="N28" s="26"/>
       <c r="O28" s="25"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="29" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>788</v>
-      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="46"/>
-    </row>
-    <row r="30" customFormat="1" ht="116" spans="1:15">
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>800</v>
-      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
@@ -27298,19 +27276,11 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>791</v>
-      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
@@ -27321,21 +27291,13 @@
       <c r="N31" s="26"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>775</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>801</v>
-      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
@@ -27346,13 +27308,13 @@
       <c r="N32" s="26"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="32"/>
       <c r="D33" s="37"/>
       <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
@@ -27363,64 +27325,63 @@
       <c r="N33" s="26"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
       <c r="C34" s="32"/>
       <c r="D34" s="37"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="25"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="46"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="32"/>
       <c r="D35" s="37"/>
       <c r="E35" s="31"/>
-      <c r="F35" s="33"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="25"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="46"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:15">
       <c r="A36" s="22"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="32"/>
       <c r="D36" s="37"/>
       <c r="E36" s="31"/>
       <c r="F36" s="33"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="33"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="25"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="46"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="22"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="32"/>
       <c r="D37" s="37"/>
       <c r="E37" s="31"/>
-      <c r="F37" s="33"/>
+      <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
@@ -27431,165 +27392,166 @@
       <c r="N37" s="26"/>
       <c r="O37" s="25"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="32"/>
       <c r="D38" s="37"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="46"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="25"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="31"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="46"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:15">
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="25"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="32"/>
-      <c r="D40" s="37"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="33"/>
       <c r="G40" s="31"/>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
-      <c r="J40" s="33"/>
+      <c r="J40" s="45"/>
       <c r="K40" s="46"/>
       <c r="L40" s="47"/>
       <c r="M40" s="48"/>
       <c r="N40" s="47"/>
       <c r="O40" s="46"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="41" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="32"/>
-      <c r="D41" s="37"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="25"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="46"/>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="32"/>
-      <c r="D42" s="37"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="25"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="46"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:15">
       <c r="A43" s="22"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="25"/>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="46"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="32"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
-      <c r="F44" s="33"/>
+      <c r="F44" s="31"/>
       <c r="G44" s="31"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="46"/>
-    </row>
-    <row r="45" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="25"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="31"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="46"/>
-    </row>
-    <row r="46" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="25"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="31"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="46"/>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:15">
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="25"/>
+    </row>
+    <row r="47" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="32"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
-      <c r="F47" s="33"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -27600,7 +27562,7 @@
       <c r="N47" s="47"/>
       <c r="O47" s="46"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="48" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="32"/>
@@ -27608,39 +27570,39 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="25"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="46"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:15">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="25"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="46"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="22"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
@@ -27651,24 +27613,24 @@
       <c r="N50" s="26"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="46"/>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="25"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="32"/>
@@ -27676,31 +27638,31 @@
       <c r="E52" s="31"/>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="46"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:15">
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="25"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="32"/>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
-      <c r="F53" s="33"/>
+      <c r="F53" s="31"/>
       <c r="G53" s="31"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="46"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="25"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="22"/>
@@ -27721,10 +27683,10 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="22"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
       <c r="H55" s="31"/>
@@ -30422,74 +30384,6 @@
       <c r="N213" s="26"/>
       <c r="O213" s="25"/>
     </row>
-    <row r="214" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A214" s="22"/>
-      <c r="B214" s="23"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="31"/>
-      <c r="F214" s="31"/>
-      <c r="G214" s="31"/>
-      <c r="H214" s="31"/>
-      <c r="I214" s="31"/>
-      <c r="J214" s="33"/>
-      <c r="K214" s="25"/>
-      <c r="L214" s="26"/>
-      <c r="M214" s="24"/>
-      <c r="N214" s="26"/>
-      <c r="O214" s="25"/>
-    </row>
-    <row r="215" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A215" s="22"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="31"/>
-      <c r="F215" s="31"/>
-      <c r="G215" s="31"/>
-      <c r="H215" s="31"/>
-      <c r="I215" s="31"/>
-      <c r="J215" s="33"/>
-      <c r="K215" s="25"/>
-      <c r="L215" s="26"/>
-      <c r="M215" s="24"/>
-      <c r="N215" s="26"/>
-      <c r="O215" s="25"/>
-    </row>
-    <row r="216" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A216" s="22"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="31"/>
-      <c r="E216" s="31"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="31"/>
-      <c r="I216" s="31"/>
-      <c r="J216" s="33"/>
-      <c r="K216" s="25"/>
-      <c r="L216" s="26"/>
-      <c r="M216" s="24"/>
-      <c r="N216" s="26"/>
-      <c r="O216" s="25"/>
-    </row>
-    <row r="217" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A217" s="22"/>
-      <c r="B217" s="23"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="31"/>
-      <c r="E217" s="31"/>
-      <c r="F217" s="31"/>
-      <c r="G217" s="31"/>
-      <c r="H217" s="31"/>
-      <c r="I217" s="31"/>
-      <c r="J217" s="33"/>
-      <c r="K217" s="25"/>
-      <c r="L217" s="26"/>
-      <c r="M217" s="24"/>
-      <c r="N217" s="26"/>
-      <c r="O217" s="25"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -30497,125 +30391,125 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29">
-    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31">
-    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
-    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N46">
     <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="111" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N7">
@@ -30629,62 +30523,62 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N10">
+  <conditionalFormatting sqref="N8:N9">
     <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N37">
+  <conditionalFormatting sqref="N31:N33">
     <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N42">
+  <conditionalFormatting sqref="N34:N38">
     <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N51:N54">
+  <conditionalFormatting sqref="N47:N50">
     <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="114" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N118:N217">
+  <conditionalFormatting sqref="N114:N213">
     <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N118,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N114,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N118,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N114,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N118,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N114,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N56:N117">
+  <conditionalFormatting sqref="N1 N3:N4 N52:N113">
     <cfRule type="beginsWith" dxfId="2" priority="136" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -30695,52 +30589,51 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N20 N18 N14:N16">
+  <conditionalFormatting sqref="N13:N15 N17 N19">
     <cfRule type="beginsWith" dxfId="2" priority="103" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="105" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N28 N32:N34 N30">
+  <conditionalFormatting sqref="N28:N30 N26 N22:N24">
     <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N49 N55">
+  <conditionalFormatting sqref="N40:N45 N51">
     <cfRule type="beginsWith" dxfId="2" priority="115" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C11 C12 C13 C15 C16 C17 C18 C19 C20 C21 C22 C26 C27 C28 C29 C30 C31 C32 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C5:C6 C9:C10 C23:C25 C33:C34 C56:C217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C10 C11 C12 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C5:C6 C8:C9 C29:C30 C52:C213">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D8 D11 D12 D13 D15 D16 D17 D18 D19 D20 D21 D22 D26 D27 D28 D29 D30 D31 D32 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D5:D6 D9:D10 D23:D25 D33:D34 D56:D217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D10 D11 D12 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D5:D6 D8:D9 D29:D30 D52:D213">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="${api.baseUrl}gkuser" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E15" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F22" r:id="rId1" display="${api.baseUrl}invite" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F13" r:id="rId1" display="${api.baseUrl}gkuser" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E14" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F21" r:id="rId1" display="${api.baseUrl}invite" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F12" r:id="rId1" display="${api.baseUrl}gkuser" tooltip="https://api.gnukhata.org/login?type=user"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -30969,10 +30862,10 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="22" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>35</v>
@@ -31006,10 +30899,10 @@
         <v>471</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="34"/>
@@ -31031,11 +30924,11 @@
         <v>197</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -31056,7 +30949,7 @@
         <v>536</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -31079,10 +30972,10 @@
         <v>471</v>
       </c>
       <c r="E12" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="34"/>
@@ -31104,10 +30997,10 @@
         <v>471</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="34"/>
@@ -31129,10 +31022,10 @@
         <v>471</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="34"/>
@@ -31154,10 +31047,10 @@
         <v>471</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="34"/>
@@ -31179,10 +31072,10 @@
         <v>465</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31"/>
@@ -31204,10 +31097,10 @@
         <v>49</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="31"/>
@@ -31229,10 +31122,10 @@
         <v>471</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="31"/>
@@ -31254,16 +31147,16 @@
         <v>471</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="33" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="26"/>
@@ -31281,10 +31174,10 @@
         <v>302</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -31298,10 +31191,10 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>792</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>793</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>35</v>
@@ -31327,10 +31220,10 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="1:15">
       <c r="A22" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>5</v>
@@ -31339,10 +31232,10 @@
         <v>471</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
@@ -31364,10 +31257,10 @@
         <v>471</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="31"/>
@@ -31389,13 +31282,13 @@
         <v>140</v>
       </c>
       <c r="E24" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="G24" s="30" t="s">
         <v>784</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>785</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="31"/>
@@ -31416,10 +31309,10 @@
         <v>471</v>
       </c>
       <c r="E25" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="34"/>
@@ -31441,10 +31334,10 @@
         <v>447</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
@@ -31466,10 +31359,10 @@
         <v>49</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
@@ -31491,10 +31384,10 @@
         <v>145</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
@@ -31670,7 +31563,7 @@
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="31"/>
@@ -31709,10 +31602,10 @@
         <v>471</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="34"/>
@@ -31734,10 +31627,10 @@
         <v>447</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G41" s="31"/>
       <c r="H41" s="34"/>
@@ -31759,10 +31652,10 @@
         <v>49</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
@@ -31844,10 +31737,10 @@
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="22" t="s">
-        <v>770</v>
+        <v>820</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>5</v>
@@ -31856,10 +31749,10 @@
         <v>471</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -31881,10 +31774,10 @@
         <v>471</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G48" s="31"/>
       <c r="H48" s="31"/>
@@ -31906,13 +31799,13 @@
         <v>356</v>
       </c>
       <c r="E49" s="33" t="s">
+        <v>782</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="G49" s="31" t="s">
         <v>784</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>785</v>
       </c>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
@@ -31933,7 +31826,7 @@
         <v>536</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="31"/>
@@ -31956,10 +31849,10 @@
         <v>471</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="31"/>
@@ -31981,10 +31874,10 @@
         <v>447</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
@@ -32006,10 +31899,10 @@
         <v>49</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="31"/>
@@ -32031,7 +31924,7 @@
         <v>536</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="31"/>
@@ -32046,10 +31939,10 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>792</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>793</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>35</v>
@@ -32075,10 +31968,10 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="1:15">
       <c r="A56" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>5</v>
@@ -32087,10 +31980,10 @@
         <v>471</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="31"/>
@@ -32105,7 +31998,7 @@
     <row r="57" customFormat="1" ht="28" spans="1:15">
       <c r="A57" s="22"/>
       <c r="B57" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>5</v>
@@ -32114,10 +32007,10 @@
         <v>471</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G57" s="30"/>
       <c r="H57" s="31"/>
@@ -32139,10 +32032,10 @@
         <v>465</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G58" s="30"/>
       <c r="H58" s="31"/>
@@ -32164,10 +32057,10 @@
         <v>49</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="31"/>
@@ -32189,10 +32082,10 @@
         <v>471</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G60" s="30"/>
       <c r="H60" s="31"/>
@@ -32214,7 +32107,7 @@
         <v>471</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F61" s="35" t="s">
         <v>825</v>
@@ -32239,13 +32132,13 @@
         <v>140</v>
       </c>
       <c r="E62" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="F62" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="G62" s="30" t="s">
         <v>784</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>785</v>
       </c>
       <c r="H62" s="30"/>
       <c r="I62" s="31"/>
@@ -32266,10 +32159,10 @@
         <v>471</v>
       </c>
       <c r="E63" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="F63" s="31" t="s">
         <v>787</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>788</v>
       </c>
       <c r="G63" s="31"/>
       <c r="H63" s="34"/>
@@ -32291,10 +32184,10 @@
         <v>447</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
@@ -32316,10 +32209,10 @@
         <v>49</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
@@ -32341,10 +32234,10 @@
         <v>302</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G66" s="31"/>
       <c r="H66" s="31"/>
